--- a/tut06/output/2001EE44.xlsx
+++ b/tut06/output/2001EE44.xlsx
@@ -511,10 +511,10 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -526,10 +526,10 @@
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -562,7 +562,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -574,10 +574,10 @@
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -598,10 +598,10 @@
       <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -634,7 +634,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -646,10 +646,10 @@
       <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -670,10 +670,10 @@
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -718,10 +718,10 @@
       <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -754,7 +754,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -778,7 +778,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -802,7 +802,7 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -826,7 +826,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -850,7 +850,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -874,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
